--- a/test_1.xlsx
+++ b/test_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12949\Box\12949\20210910\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D516B3-3C2F-458D-BAC8-D3B8621DEC9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1266C-49A3-4CB3-B39E-93BAEBFAEB5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.296875" defaultRowHeight="21.6" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:12" ht="21.6" customHeight="1">
+    <row r="2" spans="2:13" ht="21.6" customHeight="1">
       <c r="C2">
         <v>1</v>
       </c>
@@ -389,8 +389,11 @@
       <c r="L2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="21.6" customHeight="1">
       <c r="B3">
         <v>1</v>
       </c>
@@ -403,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:L17" si="0">E$2*$B3</f>
+        <f t="shared" ref="E3:M17" si="0">E$2*$B3</f>
         <v>3</v>
       </c>
       <c r="F3">
@@ -434,8 +437,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="21.6" customHeight="1">
       <c r="B4">
         <v>2</v>
       </c>
@@ -444,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="2">D$2*$B4</f>
+        <f t="shared" ref="D4:D17" si="2">D$2*$B4</f>
         <v>4</v>
       </c>
       <c r="E4">
@@ -479,8 +486,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="21.6" customHeight="1">
       <c r="B5">
         <v>3</v>
       </c>
@@ -524,8 +535,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="21.6" customHeight="1">
       <c r="B6">
         <v>4</v>
       </c>
@@ -569,8 +584,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="21.6" customHeight="1">
       <c r="B7">
         <v>5</v>
       </c>
@@ -614,8 +633,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="21.6" customHeight="1">
       <c r="B8">
         <v>6</v>
       </c>
@@ -659,8 +682,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="21.6" customHeight="1">
       <c r="B9">
         <v>7</v>
       </c>
@@ -704,8 +731,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="21.6" customHeight="1">
       <c r="B10">
         <v>8</v>
       </c>
@@ -749,8 +780,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="21.6" customHeight="1">
       <c r="B11">
         <v>9</v>
       </c>
@@ -794,8 +829,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="21.6" customHeight="1">
       <c r="B12">
         <v>10</v>
       </c>
@@ -839,8 +878,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21.6" customHeight="1">
       <c r="B13">
         <v>11</v>
       </c>
@@ -884,8 +927,12 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="21.6" customHeight="1">
       <c r="B14">
         <v>12</v>
       </c>
@@ -929,8 +976,12 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="21.6" customHeight="1">
       <c r="B15">
         <v>13</v>
       </c>
@@ -974,8 +1025,12 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21.6" customHeight="1">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1019,8 +1074,12 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="21.6" customHeight="1">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="21.6" customHeight="1">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1063,6 +1122,10 @@
       <c r="L17">
         <f t="shared" si="0"/>
         <v>150</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
